--- a/resultados leoncio prado.xlsx
+++ b/resultados leoncio prado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4DAA9-97F4-4B9F-9073-ED43248DF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A58A425-A370-43EE-B457-C58A701583D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{804F2290-C370-4EED-84A6-08E655F4A9C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>RUPA-RUPA</t>
   </si>
@@ -71,33 +71,6 @@
     <t>distrito</t>
   </si>
   <si>
-    <t>porcentajembv</t>
-  </si>
-  <si>
-    <t>votosmbv</t>
-  </si>
-  <si>
-    <t>porcentajeap</t>
-  </si>
-  <si>
-    <t>votosap</t>
-  </si>
-  <si>
-    <t>porcentajehuapri</t>
-  </si>
-  <si>
-    <t>votoshuapri</t>
-  </si>
-  <si>
-    <t>porcentajegallito</t>
-  </si>
-  <si>
-    <t>votosgallito</t>
-  </si>
-  <si>
-    <t>ganador</t>
-  </si>
-  <si>
     <t>porcentajepulgar</t>
   </si>
   <si>
@@ -122,19 +95,13 @@
     <t>votosmarleni</t>
   </si>
   <si>
-    <t>diferenciapulgar</t>
-  </si>
-  <si>
-    <t>diferenciashapra</t>
-  </si>
-  <si>
-    <t>diferenciaedison</t>
-  </si>
-  <si>
-    <t>diferenciamarleni</t>
-  </si>
-  <si>
     <t>idh2019</t>
+  </si>
+  <si>
+    <t>pobreza</t>
+  </si>
+  <si>
+    <t>analfabetismo</t>
   </si>
 </sst>
 </file>
@@ -191,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,23 +479,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5885AC-8469-4B0C-B8B8-777C4C9B001A}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="14" max="14" width="16.109375" customWidth="1"/>
     <col min="16" max="16" width="15.21875" customWidth="1"/>
     <col min="18" max="18" width="16.6640625" customWidth="1"/>
@@ -537,78 +506,47 @@
     <col min="23" max="23" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,74 +554,39 @@
         <v>0.58179999999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>30.1</v>
+        <v>13.6</v>
       </c>
       <c r="D2" s="2">
-        <v>9080</v>
+        <v>10.9</v>
       </c>
       <c r="E2" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10161</v>
+      </c>
+      <c r="G2" s="2">
         <v>24.1</v>
       </c>
-      <c r="F2" s="2">
-        <v>7271</v>
-      </c>
-      <c r="G2" s="2">
-        <v>13.6</v>
-      </c>
       <c r="H2" s="2">
-        <v>4109</v>
+        <v>7370</v>
       </c>
       <c r="I2" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3130</v>
+      </c>
+      <c r="K2" s="2">
         <v>11.6</v>
       </c>
-      <c r="J2" s="2">
-        <v>3503</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
       <c r="L2" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10014</v>
-      </c>
-      <c r="N2" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>7257</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3078</v>
-      </c>
-      <c r="R2" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3511</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" ref="T2:T11" si="0">M2-D2</f>
-        <v>934</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" ref="U2:U11" si="1">O2-F2</f>
-        <v>-14</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" ref="V2:V11" si="2">Q2-H2</f>
-        <v>-1031</v>
-      </c>
-      <c r="W2" s="2">
-        <f t="shared" ref="W2:W11" si="3">S2-J2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3569</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,74 +594,39 @@
         <v>0.3543</v>
       </c>
       <c r="C3" s="2">
-        <v>3.5</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>151</v>
+        <v>20.8</v>
       </c>
       <c r="E3" s="2">
-        <v>7.7</v>
+        <v>16.2</v>
       </c>
       <c r="F3" s="2">
-        <v>333</v>
+        <v>733</v>
       </c>
       <c r="G3" s="2">
-        <v>32.6</v>
+        <v>27.6</v>
       </c>
       <c r="H3" s="2">
-        <v>1398</v>
+        <v>1247</v>
       </c>
       <c r="I3" s="2">
-        <v>3.1</v>
+        <v>26.1</v>
       </c>
       <c r="J3" s="2">
-        <v>135</v>
+        <v>1174</v>
       </c>
       <c r="K3" s="2">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="L3" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>659</v>
-      </c>
-      <c r="N3" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1132</v>
-      </c>
-      <c r="P3" s="2">
-        <v>26.1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1061</v>
-      </c>
-      <c r="R3" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="S3" s="2">
-        <v>341</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="1"/>
-        <v>799</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="2"/>
-        <v>-337</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,74 +634,39 @@
         <v>0.3085</v>
       </c>
       <c r="C4" s="2">
-        <v>22.1</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>587</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>15.2</v>
+        <v>29.1</v>
       </c>
       <c r="F4" s="2">
-        <v>404</v>
+        <v>770</v>
       </c>
       <c r="G4" s="2">
-        <v>14.1</v>
+        <v>25.9</v>
       </c>
       <c r="H4" s="2">
-        <v>373</v>
+        <v>686</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="K4" s="2">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="L4" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>770</v>
-      </c>
-      <c r="N4" s="2">
-        <v>25.9</v>
-      </c>
-      <c r="O4" s="2">
-        <v>686</v>
-      </c>
-      <c r="P4" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>339</v>
-      </c>
-      <c r="R4" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="S4" s="2">
         <v>191</v>
       </c>
-      <c r="T4" s="2">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="2"/>
-        <v>-34</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="3"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,74 +674,39 @@
         <v>0.44890000000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="E5" s="2">
-        <v>31.9</v>
+        <v>12.7</v>
       </c>
       <c r="F5" s="2">
-        <v>4107</v>
+        <v>1690</v>
       </c>
       <c r="G5" s="2">
-        <v>19.399999999999999</v>
+        <v>33.1</v>
       </c>
       <c r="H5" s="2">
-        <v>2506</v>
+        <v>4392</v>
       </c>
       <c r="I5" s="2">
-        <v>16.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="J5" s="2">
-        <v>2082</v>
+        <v>2116</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="L5" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1650</v>
-      </c>
-      <c r="N5" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>4323</v>
-      </c>
-      <c r="P5" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2094</v>
-      </c>
-      <c r="R5" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1986</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="2"/>
-        <v>-412</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="3"/>
-        <v>-96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2012</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -916,74 +714,39 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>17.100000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>1006</v>
+        <v>18.2</v>
       </c>
       <c r="E6" s="2">
-        <v>16.399999999999999</v>
+        <v>30.1</v>
       </c>
       <c r="F6" s="2">
-        <v>968</v>
+        <v>1831</v>
       </c>
       <c r="G6" s="2">
-        <v>5.5</v>
+        <v>28.8</v>
       </c>
       <c r="H6" s="2">
-        <v>324</v>
+        <v>1754</v>
       </c>
       <c r="I6" s="2">
-        <v>4.4000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="J6" s="2">
-        <v>259</v>
+        <v>448</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L6" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1621</v>
-      </c>
-      <c r="N6" s="2">
-        <v>28.8</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1569</v>
-      </c>
-      <c r="P6" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>401</v>
-      </c>
-      <c r="R6" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="S6" s="2">
-        <v>471</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="0"/>
-        <v>615</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="1"/>
-        <v>601</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="3"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -991,74 +754,39 @@
         <v>0.35139999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>20.100000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="D7" s="2">
-        <v>1482</v>
+        <v>20.9</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="G7" s="2">
-        <v>16.100000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="H7" s="2">
-        <v>1184</v>
+        <v>2075</v>
       </c>
       <c r="I7" s="2">
-        <v>6.7</v>
+        <v>13.4</v>
       </c>
       <c r="J7" s="2">
-        <v>498</v>
+        <v>997</v>
       </c>
       <c r="K7" s="2">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="L7" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1767</v>
-      </c>
-      <c r="N7" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2075</v>
-      </c>
-      <c r="P7" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>997</v>
-      </c>
-      <c r="R7" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="S7" s="2">
         <v>745</v>
       </c>
-      <c r="T7" s="2">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="1"/>
-        <v>2075</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="2"/>
-        <v>-187</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="3"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1066,74 +794,39 @@
         <v>0.33279999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="G8" s="2">
-        <v>16.899999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="H8" s="2">
-        <v>310</v>
+        <v>576</v>
       </c>
       <c r="I8" s="2">
-        <v>5.6</v>
+        <v>14.1</v>
       </c>
       <c r="J8" s="2">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="K8" s="2">
-        <v>4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="L8" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>248</v>
-      </c>
-      <c r="N8" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="O8" s="2">
-        <v>576</v>
-      </c>
-      <c r="P8" s="2">
-        <v>14.1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>290</v>
-      </c>
-      <c r="R8" s="2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="S8" s="2">
         <v>376</v>
       </c>
-      <c r="T8" s="2">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="3"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,74 +834,39 @@
         <v>0.56940000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>36.9</v>
+        <v>13.6</v>
       </c>
       <c r="D9" s="2">
-        <v>1808</v>
+        <v>11.4</v>
       </c>
       <c r="E9" s="2">
-        <v>11.3</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>553</v>
+        <v>1799</v>
       </c>
       <c r="G9" s="2">
-        <v>28.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>1377</v>
+        <v>931</v>
       </c>
       <c r="I9" s="2">
-        <v>4.4000000000000004</v>
+        <v>18.3</v>
       </c>
       <c r="J9" s="2">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L9" s="2">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1799</v>
-      </c>
-      <c r="N9" s="2">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="O9" s="2">
-        <v>931</v>
-      </c>
-      <c r="P9" s="2">
-        <v>18.3</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>900</v>
-      </c>
-      <c r="R9" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="S9" s="2">
         <v>455</v>
       </c>
-      <c r="T9" s="2">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="2"/>
-        <v>-477</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1216,74 +874,39 @@
         <v>0.41839999999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>7.1</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>155</v>
+        <v>18.2</v>
       </c>
       <c r="E10" s="2">
-        <v>27.7</v>
+        <v>17.3</v>
       </c>
       <c r="F10" s="2">
-        <v>604</v>
+        <v>378</v>
       </c>
       <c r="G10" s="2">
-        <v>8.1</v>
+        <v>32.5</v>
       </c>
       <c r="H10" s="2">
-        <v>175</v>
+        <v>710</v>
       </c>
       <c r="I10" s="2">
-        <v>21.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" s="2">
-        <v>463</v>
+        <v>162</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>21.3</v>
       </c>
       <c r="L10" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>378</v>
-      </c>
-      <c r="N10" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="O10" s="2">
-        <v>710</v>
-      </c>
-      <c r="P10" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>162</v>
-      </c>
-      <c r="R10" s="2">
-        <v>21.3</v>
-      </c>
-      <c r="S10" s="2">
         <v>466</v>
       </c>
-      <c r="T10" s="2">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="W10" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1291,71 +914,34 @@
         <v>0.31950000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>5.0999999999999996</v>
+        <v>23.7</v>
       </c>
       <c r="D11" s="2">
-        <v>74</v>
+        <v>19.5</v>
       </c>
       <c r="E11" s="2">
-        <v>26.9</v>
+        <v>17.5</v>
       </c>
       <c r="F11" s="2">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="G11" s="2">
-        <v>34.200000000000003</v>
+        <v>29.7</v>
       </c>
       <c r="H11" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="I11" s="2">
-        <v>4.2</v>
+        <v>26.7</v>
       </c>
       <c r="J11" s="2">
-        <v>61</v>
+        <v>451</v>
       </c>
       <c r="K11" s="2">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="L11" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="M11" s="2">
-        <v>295</v>
-      </c>
-      <c r="N11" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="O11" s="2">
-        <v>502</v>
-      </c>
-      <c r="P11" s="2">
-        <v>26.7</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>451</v>
-      </c>
-      <c r="R11" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="S11" s="2">
         <v>125</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="2"/>
-        <v>-44</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="3"/>
-        <v>64</v>
       </c>
     </row>
   </sheetData>
